--- a/biology/Botanique/Tillandsia_paraensis/Tillandsia_paraensis.xlsx
+++ b/biology/Botanique/Tillandsia_paraensis/Tillandsia_paraensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia paraensis Mez est une espèce de plantes à fleurs de la famille des Bromeliaceae. C'est une plante épiphyte.
 L'épithète paraensis se rapporte à l'état de Pará et sa capitale (aujourd'hui Belém), au Brésil, dont est originaire la plante.
@@ -512,12 +524,14 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia paraensis Mez in Mart., Fl. Bras. 3(3): 586, tab. 109 (1894) (pro paraënsis)
-Diagnose originale[1] :
+Diagnose originale :
 « TILLANDSIA PARAENSIS Mez n. sp. foliis dense rosulatis basi utriculum ovoideum manifestum efformantibus, quaquaversis, e basi perlonge acutis, adpresse lepidotis; inflorescentia scapo crassiusculo foliis paullo inflatis induto elata folia radicalia subaequante vel iis minute breviore, subpauciflora, simplicissima laxe distiche spicata; bracteis floralibus late ovatis, acutis, apice paullo incurvis, dorso dense lepidotis, sepala superantibus; sepalis liberis, dorso lepidoto-tomentellis; petalis tubulose erectis; staminibus petala sino dubio superantibus ».
-Type : leg. Sieber, n°68[2] ; « Brasiliae septentrionalis prov. Pará » ; herb. Brux[1]. 
+Type : leg. Sieber, n°68 ; « Brasiliae septentrionalis prov. Pará » ; herb. Brux. 
 </t>
         </is>
       </c>
@@ -548,13 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymie nomenclaturale
-(aucune)
-Synonymie taxonomique
-Tillandsia boliviensis Baker[3], pro parte[2]
-Tillandsia juruana Ule[3]
-Vriesea sanctae-crucis S.Moore [2],[3]
-Tillandsia sanctae-crucis (S.Moore) Mez</t>
+          <t>Synonymie nomenclaturale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(aucune)</t>
         </is>
       </c>
     </row>
@@ -579,10 +593,23 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie taxonomique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tillandsia boliviensis Baker, pro parte
+Tillandsia juruana Ule
+Vriesea sanctae-crucis S.Moore ,
+Tillandsia sanctae-crucis (S.Moore) Mez</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -605,16 +632,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et habitat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Biotype : plante herbacée en rosette acaule, monocarpique vivace par ses rejets latéraux ; épiphyte[4],[3].
-Habitat : forêt[3].
-Altitude : 100-500 m[3].</t>
-        </is>
-      </c>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -637,29 +660,16 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Amérique du Sud
- Bolivie[4],[3] :
-La Paz[2]
-Santa Cruz[2]
- Brésil
-Amazonas[2]
-Acre[2]
-Pará[1]
-Mato Grosso[2]
-ouest du Brésil[4]
- Colombie[4],[3]
-Vaupés[2]
- Guyane[3]
- Pérou
-Loreto[2]
- Suriname
-sud du Surinam[3]
- Venezuela,[3]</t>
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Biotype : plante herbacée en rosette acaule, monocarpique vivace par ses rejets latéraux ; épiphyte,.
+Habitat : forêt.
+Altitude : 100-500 m.</t>
         </is>
       </c>
     </row>
@@ -684,10 +694,61 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Amérique du Sud
+ Bolivie, :
+La Paz
+Santa Cruz
+ Brésil
+Amazonas
+Acre
+Pará
+Mato Grosso
+ouest du Brésil
+ Colombie,
+Vaupés
+ Guyane
+ Pérou
+Loreto
+ Suriname
+sud du Surinam
+ Venezuela,</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tillandsia_paraensis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_paraensis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
